--- a/scrambles.xlsx
+++ b/scrambles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oysteinsolvang/Documents/NUPI/red_star/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610216C2-9083-4943-95F3-5E1951DFAAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E4A44F-6354-1241-B903-CC115BA7373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35300" yWindow="500" windowWidth="29840" windowHeight="42120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3427,7 +3427,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A235" sqref="A235"/>
+      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
